--- a/data/globalTables/finalPacking.xlsx
+++ b/data/globalTables/finalPacking.xlsx
@@ -16,54 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
-  <si>
-    <t>productCode</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>salesOrderCode</t>
-  </si>
-  <si>
-    <t>产品编号</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>大卷扫描时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卷条码信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPE4406</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包膜(印刷)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S117012</t>
-  </si>
-  <si>
-    <t>花王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>操作员工</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -77,113 +30,93 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>起始小卷条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾小卷条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效小卷个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310100100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310200200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310200300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310300300</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310300400</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310400500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310400600</t>
-  </si>
-  <si>
-    <t>S17110906L302S118012014310500600</t>
-  </si>
-  <si>
-    <t>startSmallBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>endSmallBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfSmall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>largeBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>scanTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卷产生日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>generateTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A02323huawang01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-03-05 13:23</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2018-03-05 13:53</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>工单编号</t>
   </si>
   <si>
     <t>dispatchCode</t>
   </si>
   <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
+    <t>打包条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卷条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>packingBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产批号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180430601</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180430602</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121J3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030105</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030106</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804306121F321340030107</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +178,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,9 +186,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -563,253 +493,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/globalTables/finalPacking.xlsx
+++ b/data/globalTables/finalPacking.xlsx
@@ -16,7 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+  <si>
+    <t>productCode</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>salesOrderCode</t>
+  </si>
+  <si>
+    <t>产品编号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>大卷扫描时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卷条码信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPE4406</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包膜(印刷)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S117012</t>
+  </si>
+  <si>
+    <t>花王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>操作员工</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -30,93 +77,113 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>起始小卷条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾小卷条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效小卷个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310100100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310200200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310200300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310300300</t>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310300400</t>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310400500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310400600</t>
+  </si>
+  <si>
+    <t>S17110906L302S118012014310500600</t>
+  </si>
+  <si>
+    <t>startSmallBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>endSmallBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfSmall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>largeBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scanTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卷产生日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>generateTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>A02323huawang01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02323huawang02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02323huawang03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A02323huawang04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2018-03-05 13:23</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2018-03-05 13:53</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>工单编号</t>
   </si>
   <si>
     <t>dispatchCode</t>
   </si>
   <si>
-    <t>打包条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小卷条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>packingBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>打包时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产批号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>batchNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>180430601</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>180430602</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121J3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030106</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1804306121F321340030107</t>
+    <t>S17110906L302</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S17110906L302</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +245,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -493,220 +563,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="10" width="16.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/globalTables/finalPacking.xlsx
+++ b/data/globalTables/finalPacking.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Tools\TCPIP communication\zihua_MESSystem\data\globalTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5580"/>
   </bookViews>
@@ -16,55 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>productCode</t>
   </si>
   <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>salesOrderCode</t>
-  </si>
-  <si>
     <t>产品编号</t>
   </si>
   <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>大卷扫描时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大卷条码信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPE4406</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>包膜(印刷)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S117012</t>
-  </si>
-  <si>
-    <t>花王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>操作员工</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -77,113 +45,89 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>起始小卷条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾小卷条码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效小卷个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302S118012014310100100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302S118012014310200200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302S118012014310200300</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302S118012014310300300</t>
-  </si>
-  <si>
     <t>S17110906L302S118012014310300400</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310400500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302S118012014310400600</t>
   </si>
   <si>
-    <t>S17110906L302S118012014310500600</t>
-  </si>
-  <si>
-    <t>startSmallBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>endSmallBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfSmall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>largeBarcode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>scanTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大卷产生日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>generateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02323huawang04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-03-05 13:23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-03-05 13:53</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>工单编号</t>
-  </si>
-  <si>
-    <t>dispatchCode</t>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S17110906L302</t>
+    <t>包装标签条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>packingBarcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180530401</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPE014006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码上传时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-05 11:20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollNUmber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalWeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>barcode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +189,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -255,16 +199,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,12 +213,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,253 +507,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.375" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>1203</v>
+      </c>
+      <c r="J3">
+        <v>129230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>41</v>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>1203</v>
+      </c>
+      <c r="J4">
+        <v>129230</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>1203</v>
+      </c>
+      <c r="J5">
+        <v>129230</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
+      <c r="I6">
+        <v>1203</v>
+      </c>
+      <c r="J6">
+        <v>129230</v>
       </c>
     </row>
   </sheetData>

--- a/data/globalTables/finalPacking.xlsx
+++ b/data/globalTables/finalPacking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Tools\TCPIP communication\zihua_MESSystem\data\globalTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\globalTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5580"/>
+    <workbookView xWindow="1290" yWindow="45" windowWidth="14355" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>productCode</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>barcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -509,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,8 +562,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>

--- a/data/globalTables/finalPacking.xlsx
+++ b/data/globalTables/finalPacking.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\globalTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="45" windowWidth="14355" windowHeight="5580"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,8 +203,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -225,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,7 +297,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
